--- a/Doc/ExcelConfig/Datas/dota/PopulationConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PopulationConfig.xlsx
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C14" sqref="C14:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>300</v>
@@ -1131,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>400</v>
@@ -1145,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>600</v>
@@ -1173,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>700</v>
@@ -1187,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>800</v>
@@ -1201,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>900</v>
@@ -1215,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>1000</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>1100</v>
@@ -1243,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>1200</v>
@@ -1257,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>1300</v>
@@ -1271,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>1400</v>
@@ -1285,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>1500</v>
@@ -1299,7 +1299,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>1600</v>
@@ -1313,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>1700</v>
@@ -1327,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>1800</v>
@@ -1341,7 +1341,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>1900</v>
@@ -1355,7 +1355,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>2000</v>
@@ -1369,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <v>2100</v>
@@ -1383,7 +1383,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>2200</v>
@@ -1397,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
         <v>2300</v>
@@ -1411,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="3">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <v>2400</v>
@@ -1425,7 +1425,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
         <v>2500</v>
@@ -1439,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <v>2600</v>
@@ -1453,7 +1453,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <v>2700</v>
@@ -1467,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="3">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <v>2800</v>
@@ -1481,7 +1481,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="3">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <v>2900</v>
@@ -1495,7 +1495,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="3">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <v>3000</v>
@@ -1509,7 +1509,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="3">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <v>3100</v>
@@ -1523,7 +1523,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="3">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
         <v>3200</v>
@@ -1537,7 +1537,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="3">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
         <v>3300</v>
@@ -1551,7 +1551,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="3">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
         <v>3400</v>
@@ -1565,7 +1565,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="3">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <v>3500</v>
@@ -1579,7 +1579,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="3">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1">
         <v>3600</v>
@@ -1593,7 +1593,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="3">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1">
         <v>3700</v>
@@ -1607,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="3">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1">
         <v>3800</v>
@@ -1621,7 +1621,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="3">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <v>3900</v>
@@ -1635,7 +1635,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="3">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
         <v>4000</v>
@@ -1649,7 +1649,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="3">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
         <v>4100</v>
@@ -1663,7 +1663,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="3">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
         <v>4200</v>
@@ -1677,7 +1677,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="3">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
         <v>4300</v>
@@ -1691,7 +1691,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="3">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
         <v>4400</v>
@@ -1705,7 +1705,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="3">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
         <v>4500</v>
@@ -1719,7 +1719,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="3">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
         <v>4600</v>
@@ -1733,7 +1733,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="3">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
         <v>4700</v>
@@ -1747,7 +1747,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="3">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
         <v>4800</v>
@@ -1761,7 +1761,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="3">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
         <v>4900</v>
@@ -1775,7 +1775,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
         <v>5000</v>
@@ -1789,7 +1789,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="3">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
         <v>5100</v>
